--- a/2002/vii-contributing-agencies-and-full-time-law-enforcement-employees-january-december-2002.xlsx
+++ b/2002/vii-contributing-agencies-and-full-time-law-enforcement-employees-january-december-2002.xlsx
@@ -6,7 +6,7 @@
     <sheet sheetId="1" name="counties" state="visible" r:id="rId3"/>
     <sheet sheetId="2" name="other-agencies" state="visible" r:id="rId4"/>
     <sheet sheetId="3" name="cities" state="visible" r:id="rId5"/>
-    <sheet sheetId="4" name="colleges-and-univerisities" state="visible" r:id="rId6"/>
+    <sheet sheetId="4" name="colleges-and-universities" state="visible" r:id="rId6"/>
     <sheet sheetId="5" name="state-totals" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
